--- a/Webscraping with BeautifulSoup/Stock_Prices.xlsx
+++ b/Webscraping with BeautifulSoup/Stock_Prices.xlsx
@@ -2,23 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="28680" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="INDEX" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Apple" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Apple1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="APPLE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ENTERGY" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BMW ST" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,29 +28,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="14"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -58,94 +40,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC7FFCD"/>
-        <bgColor rgb="FFFFFBC7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7FFCD"/>
-        <bgColor rgb="FFFFFBC7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBFCE1"/>
-        <bgColor rgb="FFFBFCE1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBABAB6"/>
-        <bgColor rgb="FFBABAB6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00c7ffcd"/>
         <bgColor rgb="00fffbc7"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00fbfce1"/>
-        <bgColor rgb="00fbfce1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00babab6"/>
-        <bgColor rgb="00babab6"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -155,30 +60,16 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="6" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="8" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="7" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Standard" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -473,40 +364,1417 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
       <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="11"/>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="10"/>
+    <col customWidth="1" max="3" min="3" width="8"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>INDEX</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Datum</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLE </t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>in USD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="n"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>15.05.2020</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>302.6679</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
-        <f>HYPERLINK("Stock_Prices.xlsx#'Apple'!A1", "Apple")</f>
-        <v/>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>14.05.2020</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>305.3057</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
-        <f>HYPERLINK("Stock_Prices.xlsx#'Apple1'!A1", "Apple1")</f>
-        <v/>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>13.05.2020</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>312.8194</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>12.05.2020</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>317.868</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>11.05.2020</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>313.463</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>08.05.2020</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>306.3148</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>07.05.2020</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>303.0023</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>06.05.2020</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>302.542</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>05.05.2020</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>298.562</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>04.05.2020</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>291.7684</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>01.05.2020</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>289.17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>30.04.2020</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>288.7034</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>29.04.2020</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>287.4214</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>28.04.2020</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>282.9652</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>27.04.2020</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>283.2915</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>24.04.2020</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>278.802</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>23.04.2020</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>278.7794</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>22.04.2020</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>274.5004</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>21.04.2020</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>266.5902</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>20.04.2020</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>280.4595</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>17.04.2020</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>280.1337</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>16.04.2020</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>288.2054</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>15.04.2020</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>283.4235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>14.04.2020</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>284.8187</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>13.04.2020</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>273.02</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>09.04.2020</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>264.3398</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>08.04.2020</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>265.3611</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>07.04.2020</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>265.594</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>06.04.2020</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>253.1029</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>03.04.2020</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>242.3929</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>02.04.2020</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>243.0947</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>01.04.2020</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>246.2787</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>31.03.2020</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>259.4381</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>30.03.2020</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>252.8441</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>27.03.2020</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>248.5742</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>26.03.2020</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>253.716</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>25.03.2020</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>253.9473</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>24.03.2020</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>243.7506</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>23.03.2020</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>220.2967</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>20.03.2020</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>246.3681</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>19.03.2020</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>248.477</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>18.03.2020</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>246.9444</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>17.03.2020</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>253.0802</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>16.03.2020</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>254.2122</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>13.03.2020</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>260.3333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>12.03.2020</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>254.1926</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>11.03.2020</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>279.8292</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>10.03.2020</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>275.4102</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>09.03.2020</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>273.2829</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>06.03.2020</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>287.0275</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>05.03.2020</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>298.0217</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>04.03.2020</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>296.8706</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>03.03.2020</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>293.2665</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>02.03.2020</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>289.2276</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>28.02.2020</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>269.65</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>27.02.2020</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>280.1302</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>26.02.2020</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>296.3438</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>25.02.2020</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>287.26</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>24.02.2020</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>297.8736</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>21.02.2020</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>319.1696</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>20.02.2020</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>319.384</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>19.02.2020</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>324.486</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>18.02.2020</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>317.071</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>17.02.2020</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>325.4834</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>14.02.2020</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>324.8805</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>13.02.2020</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>326.1187</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>12.02.2020</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>324.9098</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>11.02.2020</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>321.4705</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>10.02.2020</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>320.3715</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>07.02.2020</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>323.3661</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>06.02.2020</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>323.3232</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>05.02.2020</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>320.6591</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>04.02.2020</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>319.3424</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>03.02.2020</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>312.8358</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>31.01.2020</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>314.982</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>30.01.2020</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>321.0542</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>29.01.2020</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>326.5097</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>28.01.2020</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>315.8435</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>27.01.2020</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>309.0308</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>24.01.2020</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>322.7186</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>23.01.2020</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>318.9772</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>22.01.2020</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>318.5028</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>21.01.2020</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>319.2784</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>20.01.2020</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>318.6938</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>17.01.2020</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>316.3003</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>16.01.2020</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>314.184</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>15.01.2020</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>313.6473</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>14.01.2020</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>315.1103</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>13.01.2020</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>312.0843</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>10.01.2020</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>310.2707</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>09.01.2020</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>310.0801</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>08.01.2020</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>298.6601</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>07.01.2020</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>300.3034</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>06.01.2020</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>299.6074</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>03.01.2020</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>297.6806</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>02.01.2020</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>297.9017</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>31.12.2019</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>293.49</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>30.12.2019</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>289.907</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>27.12.2019</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>291.1491</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>26.12.2019</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>289.95</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>24.12.2019</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>284.36</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>23.12.2019</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>283.1324</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>20.12.2019</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>282.0857</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>19.12.2019</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>279.9261</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>18.12.2019</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>279.709</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>17.12.2019</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>281.0592</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>16.12.2019</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>280.5448</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>13.12.2019</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>274.3217</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>12.12.2019</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>268.6244</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>11.12.2019</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>269.8424</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>10.12.2019</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>268.7834</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>09.12.2019</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>267.4613</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>06.12.2019</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>271.0264</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>05.12.2019</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>263.8153</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>04.12.2019</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>262.9521</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>03.12.2019</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>256.4597</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>02.12.2019</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>262.7332</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>29.11.2019</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>266.643</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>28.11.2019</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>266.7062</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>27.11.2019</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>266.638</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>26.11.2019</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>266.133</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>25.11.2019</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>265.0176</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>22.11.2019</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>262.7934</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>21.11.2019</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>262.524</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>20.11.2019</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>264.0889</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>19.11.2019</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>266.1803</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>18.11.2019</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>265.2981</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>15.11.2019</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>264.0436</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>14.11.2019</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>262.6084</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>13.11.2019</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>263.8138</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>12.11.2019</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>262.3222</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>11.11.2019</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>260.402</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>08.11.2019</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>258.5818</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>07.11.2019</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>260.531</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>06.11.2019</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>257.1771</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>05.11.2019</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>258.3398</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>04.11.2019</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>257.3035</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>01.11.2019</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>252.2984</v>
       </c>
     </row>
   </sheetData>
@@ -520,16 +1788,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
       <selection activeCell="A1" pane="topRight" sqref="A1"/>
       <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="D27" pane="bottomRight" sqref="D27"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="12"/>
     <col customWidth="1" max="2" min="2" width="10"/>
@@ -544,1287 +1812,1553 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">APPLE </t>
+          <t xml:space="preserve">ENTERGY </t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>in USD</t>
         </is>
-      </c>
-      <c r="L1">
-        <f>HYPERLINK("Stock_Prices.xlsx#INDEX!A1", "Back to INDEX")</f>
-        <v/>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>30.04.2020</t>
+          <t>15.05.2020</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288.7034</v>
+        <v>94.4825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>29.04.2020</t>
+          <t>14.05.2020</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287.4214</v>
+        <v>92.8112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>28.04.2020</t>
+          <t>13.05.2020</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282.9652</v>
+        <v>95.1563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>27.04.2020</t>
+          <t>12.05.2020</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>283.2915</v>
+        <v>96.0933</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>24.04.2020</t>
+          <t>11.05.2020</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278.802</v>
+        <v>95.2512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>23.04.2020</t>
+          <t>08.05.2020</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.7794</v>
+        <v>93.24979999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>22.04.2020</t>
+          <t>07.05.2020</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.5004</v>
+        <v>94.35120000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>21.04.2020</t>
+          <t>06.05.2020</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>266.5902</v>
+        <v>95.1016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>20.04.2020</t>
+          <t>05.05.2020</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>280.4595</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>17.04.2020</t>
+          <t>04.05.2020</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280.1337</v>
+        <v>95.42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>16.04.2020</t>
+          <t>01.05.2020</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>288.2054</v>
+        <v>93.56999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>15.04.2020</t>
+          <t>30.04.2020</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.4235</v>
+        <v>95.48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>14.04.2020</t>
+          <t>29.04.2020</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>284.8187</v>
+        <v>100.2885</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>13.04.2020</t>
+          <t>28.04.2020</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>273.02</v>
+        <v>99.68000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>09.04.2020</t>
+          <t>27.04.2020</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.3398</v>
+        <v>101.34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>08.04.2020</t>
+          <t>24.04.2020</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>265.3611</v>
+        <v>96.12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>07.04.2020</t>
+          <t>23.04.2020</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>265.594</v>
+        <v>98.0252</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>22.04.2020</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>253.1029</v>
+        <v>97.803</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>03.04.2020</t>
+          <t>21.04.2020</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>242.3929</v>
+        <v>94.66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>02.04.2020</t>
+          <t>20.04.2020</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>243.0947</v>
+        <v>98.82599999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>01.04.2020</t>
+          <t>17.04.2020</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>246.2787</v>
+        <v>101.27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>31.03.2020</t>
+          <t>16.04.2020</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>259.4381</v>
+        <v>96.9032</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>30.03.2020</t>
+          <t>15.04.2020</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>252.8441</v>
+        <v>98.6722</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>27.03.2020</t>
+          <t>14.04.2020</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>248.5742</v>
+        <v>100.3114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>26.03.2020</t>
+          <t>13.04.2020</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>253.716</v>
+        <v>97.89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>25.03.2020</t>
+          <t>09.04.2020</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>253.9473</v>
+        <v>102.91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>24.03.2020</t>
+          <t>08.04.2020</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>243.7506</v>
+        <v>100.52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>23.03.2020</t>
+          <t>07.04.2020</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>220.2967</v>
+        <v>93.65000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>20.03.2020</t>
+          <t>06.04.2020</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>246.3681</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>19.03.2020</t>
+          <t>03.04.2020</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>248.477</v>
+        <v>85.74079999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>18.03.2020</t>
+          <t>02.04.2020</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>246.9444</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>17.03.2020</t>
+          <t>01.04.2020</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>253.0802</v>
+        <v>85.58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>16.03.2020</t>
+          <t>31.03.2020</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>254.2122</v>
+        <v>96.4128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>13.03.2020</t>
+          <t>30.03.2020</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>260.3333</v>
+        <v>97.0992</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>12.03.2020</t>
+          <t>27.03.2020</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>254.1926</v>
+        <v>97.34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>11.03.2020</t>
+          <t>26.03.2020</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>279.8292</v>
+        <v>96.70999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>10.03.2020</t>
+          <t>25.03.2020</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>275.4102</v>
+        <v>88.95999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>09.03.2020</t>
+          <t>24.03.2020</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>273.2829</v>
+        <v>86.33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>23.03.2020</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>287.0275</v>
+        <v>78.18000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>05.03.2020</t>
+          <t>20.03.2020</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>298.0217</v>
+        <v>79.98999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>04.03.2020</t>
+          <t>19.03.2020</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>296.8706</v>
+        <v>84.05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>03.03.2020</t>
+          <t>18.03.2020</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>293.2665</v>
+        <v>86.41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>02.03.2020</t>
+          <t>17.03.2020</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>289.2276</v>
+        <v>96.0925</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>28.02.2020</t>
+          <t>16.03.2020</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>269.65</v>
+        <v>86.73999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>27.02.2020</t>
+          <t>13.03.2020</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>280.1302</v>
+        <v>99.93600000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>26.02.2020</t>
+          <t>12.03.2020</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>296.3438</v>
+        <v>101.64</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>25.02.2020</t>
+          <t>11.03.2020</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>287.26</v>
+        <v>111.62</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>24.02.2020</t>
+          <t>10.03.2020</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>297.8736</v>
+        <v>119.29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>21.02.2020</t>
+          <t>09.03.2020</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>319.1696</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>20.02.2020</t>
+          <t>07.03.2020</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>319.384</v>
+        <v>124.28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>19.02.2020</t>
+          <t>06.03.2020</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>324.486</v>
+        <v>124.28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>18.02.2020</t>
+          <t>05.03.2020</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>317.071</v>
+        <v>127.46</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>17.02.2020</t>
+          <t>04.03.2020</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>325.4834</v>
+        <v>128.36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>14.02.2020</t>
+          <t>03.03.2020</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>324.8805</v>
+        <v>121.89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>13.02.2020</t>
+          <t>02.03.2020</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>326.1187</v>
+        <v>124.12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>12.02.2020</t>
+          <t>29.02.2020</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>324.9098</v>
+        <v>116.91</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>11.02.2020</t>
+          <t>28.02.2020</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>321.4705</v>
+        <v>116.91</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>10.02.2020</t>
+          <t>27.02.2020</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>320.3715</v>
+        <v>120.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>07.02.2020</t>
+          <t>26.02.2020</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>323.3661</v>
+        <v>127.2375</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>25.02.2020</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>323.3232</v>
+        <v>128.996</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>05.02.2020</t>
+          <t>24.02.2020</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>320.6591</v>
+        <v>130.8978</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>04.02.2020</t>
+          <t>22.02.2020</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>319.3424</v>
+        <v>129.96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>03.02.2020</t>
+          <t>21.02.2020</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>312.8358</v>
+        <v>130.6921</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>31.01.2020</t>
+          <t>20.02.2020</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>314.982</v>
+        <v>131.638</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>30.01.2020</t>
+          <t>19.02.2020</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>321.0542</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>29.01.2020</t>
+          <t>18.02.2020</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>326.5097</v>
+        <v>135.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>28.01.2020</t>
+          <t>17.02.2020</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>315.8435</v>
+        <v>133.2705</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>27.01.2020</t>
+          <t>15.02.2020</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>309.0308</v>
+        <v>134.13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>24.01.2020</t>
+          <t>14.02.2020</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>322.7186</v>
+        <v>134.4408</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>23.01.2020</t>
+          <t>13.02.2020</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>318.9772</v>
+        <v>132.5774</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>22.01.2020</t>
+          <t>12.02.2020</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>318.5028</v>
+        <v>132.0594</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>21.01.2020</t>
+          <t>11.02.2020</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>319.2784</v>
+        <v>134.0823</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>20.01.2020</t>
+          <t>10.02.2020</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>318.6938</v>
+        <v>133.6022</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>08.02.2020</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>316.3003</v>
+        <v>131.94</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>16.01.2020</t>
+          <t>07.02.2020</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>314.184</v>
+        <v>132.7249</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>15.01.2020</t>
+          <t>06.02.2020</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>313.6473</v>
+        <v>132.036</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>14.01.2020</t>
+          <t>05.02.2020</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>315.1103</v>
+        <v>132.276</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>13.01.2020</t>
+          <t>04.02.2020</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>312.0843</v>
+        <v>132.576</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>10.01.2020</t>
+          <t>03.02.2020</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>310.2707</v>
+        <v>132.792</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>09.01.2020</t>
+          <t>01.02.2020</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>310.0801</v>
+        <v>131.52</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>08.01.2020</t>
+          <t>31.01.2020</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>298.6601</v>
+        <v>131.5188</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>07.01.2020</t>
+          <t>30.01.2020</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>300.3034</v>
+        <v>131.2451</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>29.01.2020</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>299.6074</v>
+        <v>130.9119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>03.01.2020</t>
+          <t>28.01.2020</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>297.6806</v>
+        <v>129.859</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>02.01.2020</t>
+          <t>27.01.2020</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>297.9017</v>
+        <v>130.095</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>31.12.2019</t>
+          <t>25.01.2020</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>293.49</v>
+        <v>130.73</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>30.12.2019</t>
+          <t>24.01.2020</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>289.907</v>
+        <v>131.3165</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>27.12.2019</t>
+          <t>23.01.2020</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>291.1491</v>
+        <v>129.7647</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>26.12.2019</t>
+          <t>22.01.2020</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>289.95</v>
+        <v>128.6208</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>24.12.2019</t>
+          <t>21.01.2020</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>284.36</v>
+        <v>127.8225</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>23.12.2019</t>
+          <t>20.01.2020</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>283.1324</v>
+        <v>126.369</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>20.12.2019</t>
+          <t>18.01.2020</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>282.0857</v>
+        <v>126.31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>19.12.2019</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>279.9261</v>
+        <v>126.6312</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>18.12.2019</t>
+          <t>16.01.2020</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>279.709</v>
+        <v>125.0928</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>17.12.2019</t>
+          <t>15.01.2020</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>281.0592</v>
+        <v>123.6762</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>16.12.2019</t>
+          <t>14.01.2020</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>280.5448</v>
+        <v>121.1535</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>13.12.2019</t>
+          <t>13.01.2020</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>274.3217</v>
+        <v>122.386</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>12.12.2019</t>
+          <t>11.01.2020</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>268.6244</v>
+        <v>120.61</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>11.12.2019</t>
+          <t>10.01.2020</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>269.8424</v>
+        <v>120.8919</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>10.12.2019</t>
+          <t>09.01.2020</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>268.7834</v>
+        <v>121.099</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>09.12.2019</t>
+          <t>08.01.2020</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>267.4613</v>
+        <v>121.1535</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>06.12.2019</t>
+          <t>07.01.2020</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>271.0264</v>
+        <v>119.5404</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>05.12.2019</t>
+          <t>06.01.2020</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>263.8153</v>
+        <v>119.7758</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>04.12.2019</t>
+          <t>04.01.2020</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>262.9521</v>
+        <v>118.73</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>03.12.2019</t>
+          <t>03.01.2020</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>256.4597</v>
+        <v>118.1582</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>02.12.2019</t>
+          <t>02.01.2020</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>262.7332</v>
+        <v>118.6458</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>29.11.2019</t>
+          <t>31.12.2019</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>266.643</v>
+        <v>119.8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>28.11.2019</t>
+          <t>30.12.2019</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>266.7062</v>
+        <v>120.8412</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>27.11.2019</t>
+          <t>28.12.2019</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>266.638</v>
+        <v>119.86</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>26.11.2019</t>
+          <t>27.12.2019</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>266.133</v>
+        <v>121.5677</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>25.11.2019</t>
+          <t>26.12.2019</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>265.0176</v>
+        <v>119.52</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>22.11.2019</t>
+          <t>24.12.2019</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>262.7934</v>
+        <v>119.44</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>21.11.2019</t>
+          <t>23.12.2019</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>262.524</v>
+        <v>120.7175</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>20.11.2019</t>
+          <t>21.12.2019</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>264.0889</v>
+        <v>120.17</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>19.11.2019</t>
+          <t>20.12.2019</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>266.1803</v>
+        <v>120.9573</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>18.11.2019</t>
+          <t>19.12.2019</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>265.2981</v>
+        <v>121.1753</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>15.11.2019</t>
+          <t>18.12.2019</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>264.0436</v>
+        <v>118.9305</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>14.11.2019</t>
+          <t>17.12.2019</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>262.6084</v>
+        <v>118.82</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>13.11.2019</t>
+          <t>16.12.2019</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>263.8138</v>
+        <v>118.1476</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>12.11.2019</t>
+          <t>14.12.2019</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>262.3222</v>
+        <v>118.3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>11.11.2019</t>
+          <t>13.12.2019</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>260.402</v>
+        <v>118.4444</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>08.11.2019</t>
+          <t>12.12.2019</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>258.5818</v>
+        <v>118.0522</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>07.11.2019</t>
+          <t>11.12.2019</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>260.531</v>
+        <v>118.5025</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>06.11.2019</t>
+          <t>10.12.2019</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>257.1771</v>
+        <v>118.5239</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>05.11.2019</t>
+          <t>09.12.2019</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>258.3398</v>
+        <v>118.18</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>04.11.2019</t>
+          <t>07.12.2019</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>257.3035</v>
+        <v>118.09</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
+          <t>06.12.2019</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>118.09</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>05.12.2019</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>118.42</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>04.12.2019</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>118.11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>03.12.2019</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>116.92</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>02.12.2019</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>115.98</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>29.11.2019</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>116.39</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>27.11.2019</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>116.92</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>26.11.2019</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>116.47</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>25.11.2019</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>115.38</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>23.11.2019</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>115.72</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>22.11.2019</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>115.72</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>21.11.2019</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>115.9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>20.11.2019</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>117.06</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>19.11.2019</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>116.19</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>18.11.2019</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>116.89</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>16.11.2019</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>116.71</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>15.11.2019</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>116.71</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>14.11.2019</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>116.89</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>13.11.2019</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>117.52</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>12.11.2019</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>114.86</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>11.11.2019</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>114.09</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>09.11.2019</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>114.9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>08.11.2019</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>114.9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>07.11.2019</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>114.73</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>06.11.2019</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>116.35</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>05.11.2019</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>116.58</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>04.11.2019</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>118.59</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
           <t>01.11.2019</t>
         </is>
       </c>
-      <c r="B128" t="n">
-        <v>252.2984</v>
+      <c r="B155" t="n">
+        <v>119.66</v>
       </c>
     </row>
   </sheetData>
@@ -1838,1460 +3372,1501 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="12"/>
-    <col customWidth="1" max="2" min="2" width="10"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
     <col customWidth="1" max="3" min="3" width="8"/>
-    <col customWidth="1" max="4" min="4" width="6"/>
-    <col customWidth="1" max="5" min="5" width="6"/>
-    <col customWidth="1" max="6" min="6" width="6"/>
-    <col customWidth="1" max="7" min="7" width="6"/>
-    <col customWidth="1" max="8" min="8" width="6"/>
-    <col customWidth="1" max="9" min="9" width="6"/>
-    <col customWidth="1" max="10" min="10" width="6"/>
-    <col customWidth="1" max="11" min="11" width="6"/>
-    <col customWidth="1" max="12" min="12" width="59"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APPLE </t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BMW </t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>in USD</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr"/>
-      <c r="E1" s="5" t="inlineStr"/>
-      <c r="F1" s="5" t="inlineStr"/>
-      <c r="G1" s="5" t="inlineStr"/>
-      <c r="H1" s="5" t="inlineStr"/>
-      <c r="I1" s="5" t="inlineStr"/>
-      <c r="J1" s="5" t="inlineStr"/>
-      <c r="K1" s="5" t="inlineStr"/>
-      <c r="L1" s="5">
-        <f>HYPERLINK("Stock_Prices.xlsx#INDEX!A1", "Back to INDEX")</f>
-        <v/>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Datum</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APPLE </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>in USD</t>
-        </is>
-      </c>
-      <c r="L2">
-        <f>HYPERLINK("Stock_Prices.xlsx#INDEX!A1", "Back to INDEX")</f>
-        <v/>
-      </c>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>15.05.2020</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>50.3727</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>14.05.2020</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50.8087</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>13.05.2020</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>52.9939</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>12.05.2020</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>55.2238</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>11.05.2020</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>55.6029</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>08.05.2020</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>55.7547</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>07.05.2020</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>53.2303</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>06.05.2020</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>54.705</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>05.05.2020</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>58.0209</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>04.05.2020</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>56.4279</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>30.04.2020</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>288.7034</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="B12" t="n">
+        <v>58.7848</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>29.04.2020</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>287.4214</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="B13" t="n">
+        <v>60.3574</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>28.04.2020</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>282.9652</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="B14" t="n">
+        <v>57.2239</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>27.04.2020</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>283.2915</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="B15" t="n">
+        <v>55.5622</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>24.04.2020</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>278.802</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="B16" t="n">
+        <v>52.5528</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>23.04.2020</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>278.7794</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="B17" t="n">
+        <v>54.1508</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>22.04.2020</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>274.5004</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="B18" t="n">
+        <v>53.2646</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>21.04.2020</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>266.5902</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="B19" t="n">
+        <v>52.6245</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>20.04.2020</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>280.4595</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="B20" t="n">
+        <v>55.7878</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>17.04.2020</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>280.1337</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="B21" t="n">
+        <v>56.3743</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>16.04.2020</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>288.2054</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="B22" t="n">
+        <v>53.7159</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>15.04.2020</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>283.4235</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="B23" t="n">
+        <v>52.9777</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>14.04.2020</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>284.8187</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>13.04.2020</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>273.02</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="B24" t="n">
+        <v>56.306</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>09.04.2020</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>264.3398</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="B25" t="n">
+        <v>55.2261</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>08.04.2020</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>265.3611</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="B26" t="n">
+        <v>53.4418</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>07.04.2020</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>265.594</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="B27" t="n">
+        <v>54.1148</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>06.04.2020</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>253.1029</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="B28" t="n">
+        <v>52.4011</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>03.04.2020</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>242.3929</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="B29" t="n">
+        <v>48.2629</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>02.04.2020</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>243.0947</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="B30" t="n">
+        <v>48.9298</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>01.04.2020</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>246.2787</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="B31" t="n">
+        <v>48.5394</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>31.03.2020</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>259.4381</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="B32" t="n">
+        <v>51.6192</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>30.03.2020</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>252.8441</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="B33" t="n">
+        <v>50.4585</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>27.03.2020</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>248.5742</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="B34" t="n">
+        <v>49.9618</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>26.03.2020</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>253.716</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="B35" t="n">
+        <v>51.9401</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>25.03.2020</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>253.9473</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="B36" t="n">
+        <v>50.6162</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>24.03.2020</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>243.7506</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="B37" t="n">
+        <v>49.4007</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>23.03.2020</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>220.2967</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="B38" t="n">
+        <v>42.9163</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>20.03.2020</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>246.3681</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="B39" t="n">
+        <v>44.2949</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>19.03.2020</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>248.477</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="B40" t="n">
+        <v>40.6766</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>18.03.2020</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>246.9444</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="B41" t="n">
+        <v>42.7902</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>17.03.2020</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>253.0802</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="B42" t="n">
+        <v>44.3179</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>16.03.2020</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>254.2122</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="B43" t="n">
+        <v>44.7284</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>13.03.2020</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>260.3333</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="B44" t="n">
+        <v>50.4344</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>12.03.2020</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>254.1926</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="inlineStr">
+      <c r="B45" t="n">
+        <v>49.5459</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>11.03.2020</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>279.8292</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="B46" t="n">
+        <v>57.4168</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>10.03.2020</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>275.4102</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="B47" t="n">
+        <v>57.3259</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>09.03.2020</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>273.2829</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="inlineStr">
+      <c r="B48" t="n">
+        <v>58.4485</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>06.03.2020</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>287.0275</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="inlineStr">
+      <c r="B49" t="n">
+        <v>64.8646</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>05.03.2020</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>298.0217</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="inlineStr">
+      <c r="B50" t="n">
+        <v>64.9629</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>04.03.2020</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>296.8706</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="inlineStr">
+      <c r="B51" t="n">
+        <v>65.1591</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>03.03.2020</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>293.2665</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="inlineStr">
+      <c r="B52" t="n">
+        <v>64.2118</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>02.03.2020</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>289.2276</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="inlineStr">
+      <c r="B53" t="n">
+        <v>64.5076</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>28.02.2020</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>269.65</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="inlineStr">
+      <c r="B54" t="n">
+        <v>64.6875</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>27.02.2020</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>280.1302</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="inlineStr">
+      <c r="B55" t="n">
+        <v>65.6086</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>26.02.2020</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>296.3438</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="inlineStr">
+      <c r="B56" t="n">
+        <v>67.1858</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>25.02.2020</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>287.26</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="inlineStr">
+      <c r="B57" t="n">
+        <v>66.15649999999999</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>24.02.2020</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>297.8736</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="inlineStr">
+      <c r="B58" t="n">
+        <v>66.4658</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>21.02.2020</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>319.1696</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="inlineStr">
+      <c r="B59" t="n">
+        <v>69.6773</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>20.02.2020</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>319.384</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="inlineStr">
+      <c r="B60" t="n">
+        <v>70.4695</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>19.02.2020</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>324.486</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="inlineStr">
+      <c r="B61" t="n">
+        <v>70.68600000000001</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>18.02.2020</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>317.071</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+      <c r="B62" t="n">
+        <v>70.52030000000001</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>17.02.2020</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>325.4834</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="B63" t="n">
+        <v>72.06359999999999</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>14.02.2020</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>324.8805</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+      <c r="B64" t="n">
+        <v>71.4054</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>13.02.2020</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>326.1187</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="inlineStr">
+      <c r="B65" t="n">
+        <v>72.3634</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>12.02.2020</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>324.9098</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="inlineStr">
+      <c r="B66" t="n">
+        <v>73.2002</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>11.02.2020</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>321.4705</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="inlineStr">
+      <c r="B67" t="n">
+        <v>70.2133</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>10.02.2020</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>320.3715</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="inlineStr">
+      <c r="B68" t="n">
+        <v>69.8783</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>07.02.2020</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>323.3661</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="inlineStr">
+      <c r="B69" t="n">
+        <v>70.9585</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>06.02.2020</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>323.3232</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="inlineStr">
+      <c r="B70" t="n">
+        <v>72.9829</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>05.02.2020</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>320.6591</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="inlineStr">
+      <c r="B71" t="n">
+        <v>72.9943</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>04.02.2020</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>319.3424</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="5" t="inlineStr">
+      <c r="B72" t="n">
+        <v>71.7568</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>03.02.2020</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>312.8358</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="5" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71.24290000000001</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>31.01.2020</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>314.982</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="5" t="inlineStr">
+      <c r="B74" t="n">
+        <v>71.1086</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>30.01.2020</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>321.0542</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="inlineStr">
+      <c r="B75" t="n">
+        <v>72.3061</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>29.01.2020</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>326.5097</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="inlineStr">
+      <c r="B76" t="n">
+        <v>73.21169999999999</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>28.01.2020</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>315.8435</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="inlineStr">
+      <c r="B77" t="n">
+        <v>73.5354</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>27.01.2020</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>309.0308</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="inlineStr">
+      <c r="B78" t="n">
+        <v>74.63930000000001</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>24.01.2020</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>322.7186</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="inlineStr">
+      <c r="B79" t="n">
+        <v>76.5939</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>23.01.2020</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>318.9772</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="inlineStr">
+      <c r="B80" t="n">
+        <v>77.2932</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>22.01.2020</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>318.5028</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="inlineStr">
+      <c r="B81" t="n">
+        <v>78.6694</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>21.01.2020</t>
         </is>
       </c>
-      <c r="B74" t="n">
-        <v>319.2784</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="inlineStr">
+      <c r="B82" t="n">
+        <v>79.37220000000001</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>20.01.2020</t>
         </is>
       </c>
-      <c r="B75" t="n">
-        <v>318.6938</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="5" t="inlineStr">
+      <c r="B83" t="n">
+        <v>79.41289999999999</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>17.01.2020</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>316.3003</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="inlineStr">
+      <c r="B84" t="n">
+        <v>78.93340000000001</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>16.01.2020</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>314.184</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="inlineStr">
+      <c r="B85" t="n">
+        <v>79.4898</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>15.01.2020</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>313.6473</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="inlineStr">
+      <c r="B86" t="n">
+        <v>80.4341</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>14.01.2020</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>315.1103</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="inlineStr">
+      <c r="B87" t="n">
+        <v>81.473</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>13.01.2020</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>312.0843</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="inlineStr">
+      <c r="B88" t="n">
+        <v>81.9207</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>10.01.2020</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>310.2707</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="inlineStr">
+      <c r="B89" t="n">
+        <v>82.7056</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>09.01.2020</t>
         </is>
       </c>
-      <c r="B82" t="n">
-        <v>310.0801</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="inlineStr">
+      <c r="B90" t="n">
+        <v>82.614</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>08.01.2020</t>
         </is>
       </c>
-      <c r="B83" t="n">
-        <v>298.6601</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="inlineStr">
+      <c r="B91" t="n">
+        <v>82.7067</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>07.01.2020</t>
         </is>
       </c>
-      <c r="B84" t="n">
-        <v>300.3034</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="inlineStr">
+      <c r="B92" t="n">
+        <v>82.9186</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>06.01.2020</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>299.6074</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="inlineStr">
+      <c r="B93" t="n">
+        <v>81.7722</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>03.01.2020</t>
         </is>
       </c>
-      <c r="B86" t="n">
-        <v>297.6806</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="inlineStr">
+      <c r="B94" t="n">
+        <v>81.7298</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>02.01.2020</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>297.9017</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="inlineStr">
-        <is>
-          <t>31.12.2019</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>293.49</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="inlineStr">
+      <c r="B95" t="n">
+        <v>83.0744</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>30.12.2019</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>289.907</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="inlineStr">
+      <c r="B96" t="n">
+        <v>81.83629999999999</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>27.12.2019</t>
         </is>
       </c>
-      <c r="B90" t="n">
-        <v>291.1491</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="inlineStr">
-        <is>
-          <t>26.12.2019</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>289.95</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="inlineStr">
-        <is>
-          <t>24.12.2019</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>284.36</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="inlineStr">
+      <c r="B97" t="n">
+        <v>81.98569999999999</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>23.12.2019</t>
         </is>
       </c>
-      <c r="B93" t="n">
-        <v>283.1324</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="5" t="inlineStr">
+      <c r="B98" t="n">
+        <v>81.4456</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>20.12.2019</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>282.0857</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="5" t="inlineStr">
+      <c r="B99" t="n">
+        <v>82.2843</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>19.12.2019</t>
         </is>
       </c>
-      <c r="B95" t="n">
-        <v>279.9261</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="5" t="inlineStr">
+      <c r="B100" t="n">
+        <v>82.377</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>18.12.2019</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>279.709</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="inlineStr">
+      <c r="B101" t="n">
+        <v>83.5403</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>17.12.2019</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>281.0592</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="5" t="inlineStr">
+      <c r="B102" t="n">
+        <v>83.7038</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>16.12.2019</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>280.5448</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="5" t="inlineStr">
+      <c r="B103" t="n">
+        <v>84.587</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>13.12.2019</t>
         </is>
       </c>
-      <c r="B99" t="n">
-        <v>274.3217</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="5" t="inlineStr">
+      <c r="B104" t="n">
+        <v>84.7771</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
         <is>
           <t>12.12.2019</t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>268.6244</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="5" t="inlineStr">
+      <c r="B105" t="n">
+        <v>83.3159</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
         <is>
           <t>11.12.2019</t>
         </is>
       </c>
-      <c r="B101" t="n">
-        <v>269.8424</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="5" t="inlineStr">
+      <c r="B106" t="n">
+        <v>82.1876</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
         <is>
           <t>10.12.2019</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>268.7834</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="5" t="inlineStr">
+      <c r="B107" t="n">
+        <v>81.0836</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
         <is>
           <t>09.12.2019</t>
         </is>
       </c>
-      <c r="B103" t="n">
-        <v>267.4613</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="5" t="inlineStr">
+      <c r="B108" t="n">
+        <v>81.04689999999999</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
         <is>
           <t>06.12.2019</t>
         </is>
       </c>
-      <c r="B104" t="n">
-        <v>271.0264</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="5" t="inlineStr">
+      <c r="B109" t="n">
+        <v>81.8626</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
         <is>
           <t>05.12.2019</t>
         </is>
       </c>
-      <c r="B105" t="n">
-        <v>263.8153</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="5" t="inlineStr">
+      <c r="B110" t="n">
+        <v>80.7754</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
         <is>
           <t>04.12.2019</t>
         </is>
       </c>
-      <c r="B106" t="n">
-        <v>262.9521</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="5" t="inlineStr">
+      <c r="B111" t="n">
+        <v>80.6254</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
         <is>
           <t>03.12.2019</t>
         </is>
       </c>
-      <c r="B107" t="n">
-        <v>256.4597</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="5" t="inlineStr">
+      <c r="B112" t="n">
+        <v>79.5009</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
         <is>
           <t>02.12.2019</t>
         </is>
       </c>
-      <c r="B108" t="n">
-        <v>262.7332</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="5" t="inlineStr">
+      <c r="B113" t="n">
+        <v>79.2664</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
         <is>
           <t>29.11.2019</t>
         </is>
       </c>
-      <c r="B109" t="n">
-        <v>266.643</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="5" t="inlineStr">
+      <c r="B114" t="n">
+        <v>80.49809999999999</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
         <is>
           <t>28.11.2019</t>
         </is>
       </c>
-      <c r="B110" t="n">
-        <v>266.7062</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="5" t="inlineStr">
+      <c r="B115" t="n">
+        <v>81.0188</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
         <is>
           <t>27.11.2019</t>
         </is>
       </c>
-      <c r="B111" t="n">
-        <v>266.638</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="5" t="inlineStr">
+      <c r="B116" t="n">
+        <v>82.2813</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
         <is>
           <t>26.11.2019</t>
         </is>
       </c>
-      <c r="B112" t="n">
-        <v>266.133</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="5" t="inlineStr">
+      <c r="B117" t="n">
+        <v>81.3386</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>25.11.2019</t>
         </is>
       </c>
-      <c r="B113" t="n">
-        <v>265.0176</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="5" t="inlineStr">
+      <c r="B118" t="n">
+        <v>81.65730000000001</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>22.11.2019</t>
         </is>
       </c>
-      <c r="B114" t="n">
-        <v>262.7934</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="5" t="inlineStr">
+      <c r="B119" t="n">
+        <v>81.9066</v>
+      </c>
+      <c r="C119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
         <is>
           <t>21.11.2019</t>
         </is>
       </c>
-      <c r="B115" t="n">
-        <v>262.524</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="5" t="inlineStr">
+      <c r="B120" t="n">
+        <v>81.6298</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
         <is>
           <t>20.11.2019</t>
         </is>
       </c>
-      <c r="B116" t="n">
-        <v>264.0889</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="5" t="inlineStr">
+      <c r="B121" t="n">
+        <v>81.08459999999999</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
         <is>
           <t>19.11.2019</t>
         </is>
       </c>
-      <c r="B117" t="n">
-        <v>266.1803</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="5" t="inlineStr">
+      <c r="B122" t="n">
+        <v>81.43810000000001</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
         <is>
           <t>18.11.2019</t>
         </is>
       </c>
-      <c r="B118" t="n">
-        <v>265.2981</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="5" t="inlineStr">
+      <c r="B123" t="n">
+        <v>80.9444</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
         <is>
           <t>15.11.2019</t>
         </is>
       </c>
-      <c r="B119" t="n">
-        <v>264.0436</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="5" t="inlineStr">
+      <c r="B124" t="n">
+        <v>82.2585</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
         <is>
           <t>14.11.2019</t>
         </is>
       </c>
-      <c r="B120" t="n">
-        <v>262.6084</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="5" t="inlineStr">
+      <c r="B125" t="n">
+        <v>80.729</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
         <is>
           <t>13.11.2019</t>
         </is>
       </c>
-      <c r="B121" t="n">
-        <v>263.8138</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="5" t="inlineStr">
+      <c r="B126" t="n">
+        <v>81.0702</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
         <is>
           <t>12.11.2019</t>
         </is>
       </c>
-      <c r="B122" t="n">
-        <v>262.3222</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="5" t="inlineStr">
+      <c r="B127" t="n">
+        <v>82.4693</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
         <is>
           <t>11.11.2019</t>
         </is>
       </c>
-      <c r="B123" t="n">
-        <v>260.402</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="5" t="inlineStr">
+      <c r="B128" t="n">
+        <v>82.84059999999999</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
         <is>
           <t>08.11.2019</t>
         </is>
       </c>
-      <c r="B124" t="n">
-        <v>258.5818</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="5" t="inlineStr">
+      <c r="B129" t="n">
+        <v>82.7991</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
         <is>
           <t>07.11.2019</t>
         </is>
       </c>
-      <c r="B125" t="n">
-        <v>260.531</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="5" t="inlineStr">
+      <c r="B130" t="n">
+        <v>82.4683</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
         <is>
           <t>06.11.2019</t>
         </is>
       </c>
-      <c r="B126" t="n">
-        <v>257.1771</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="5" t="inlineStr">
+      <c r="B131" t="n">
+        <v>81.5226</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
         <is>
           <t>05.11.2019</t>
         </is>
       </c>
-      <c r="B127" t="n">
-        <v>258.3398</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="5" t="inlineStr">
+      <c r="B132" t="n">
+        <v>80.87350000000001</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
         <is>
           <t>04.11.2019</t>
         </is>
       </c>
-      <c r="B128" t="n">
-        <v>257.3035</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="5" t="inlineStr">
+      <c r="B133" t="n">
+        <v>79.8913</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
         <is>
           <t>01.11.2019</t>
         </is>
       </c>
-      <c r="B129" t="n">
-        <v>252.2984</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="5" t="inlineStr">
-        <is>
-          <t>15.05.2020</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>303.2776</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="5" t="inlineStr">
-        <is>
-          <t>14.05.2020</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>305.3057</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="5" t="inlineStr">
-        <is>
-          <t>13.05.2020</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>312.8194</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="5" t="inlineStr">
-        <is>
-          <t>12.05.2020</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>317.868</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="5" t="inlineStr">
-        <is>
-          <t>11.05.2020</t>
-        </is>
-      </c>
       <c r="B134" t="n">
-        <v>313.463</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="5" t="inlineStr">
-        <is>
-          <t>08.05.2020</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>306.3148</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="5" t="inlineStr">
-        <is>
-          <t>07.05.2020</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>303.0023</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="5" t="inlineStr">
-        <is>
-          <t>06.05.2020</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>302.542</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="5" t="inlineStr">
-        <is>
-          <t>05.05.2020</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>298.562</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="5" t="inlineStr">
-        <is>
-          <t>04.05.2020</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>291.7684</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="5" t="inlineStr">
-        <is>
-          <t>01.05.2020</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>289.17</v>
-      </c>
+        <v>77.3492</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
